--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658418.1611688664</v>
+        <v>655855.2239742916</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11729183.80509164</v>
+        <v>11729183.80509163</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>61.19325431520921</v>
       </c>
       <c r="E2" t="n">
-        <v>195.3895377286167</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>302.4826447290669</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>7.085048196142452</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.2909818561841</v>
+        <v>108.4721783769036</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>233.3934276525059</v>
       </c>
       <c r="Y5" t="n">
-        <v>368.5259039499192</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.72972425580043</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>34.31526278804236</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>286.2537564402793</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>243.6879649877629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12.69168310080086</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>194.1918454193167</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754658</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>319.4395745411782</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>158.3727979581644</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819356</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.05480806223813</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>135.9022120075039</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,10 +2144,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465679</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>110.1444095748064</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>60.25690685266773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
-        <v>32.27552175740409</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>71.60395572454149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.47207866589275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>115.2963218977554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>70.0455488112438</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>45.17596778975057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1106.596373120286</v>
+        <v>897.7254217792868</v>
       </c>
       <c r="C2" t="n">
-        <v>737.6338561798746</v>
+        <v>528.7629048388751</v>
       </c>
       <c r="D2" t="n">
-        <v>737.6338561798746</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>2256.8013034213</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1883.33554516022</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y2" t="n">
-        <v>1493.196213184408</v>
+        <v>1284.325261843408</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2262.298126874725</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>477.6642370458055</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X4" t="n">
-        <v>477.6642370458055</v>
+        <v>342.4631083446101</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.2996089082458</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.5363853637798</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570292</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570292</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,19 +4562,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230818</v>
@@ -4583,7 +4583,7 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.250581723852</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532452</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796632</v>
+        <v>2308.758267664337</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453061</v>
+        <v>2308.758267664337</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453061</v>
+        <v>1955.989612394223</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191981</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.5363853637798</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310616</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625334</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084328</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681273</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.1231987576349</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="C7" t="n">
-        <v>366.1231987576349</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800314</v>
+        <v>223.9551031446994</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800314</v>
+        <v>75.21620500820561</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020477</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1601.784238470414</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1312.665900974252</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1057.981412768365</v>
+        <v>962.1544032232074</v>
       </c>
       <c r="W7" t="n">
-        <v>768.5642427314048</v>
+        <v>672.7372331862468</v>
       </c>
       <c r="X7" t="n">
-        <v>768.5642427314048</v>
+        <v>444.7476822882295</v>
       </c>
       <c r="Y7" t="n">
-        <v>547.7716635878746</v>
+        <v>223.9551031446994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1926.050536840746</v>
+        <v>656.1154853312746</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.050536840746</v>
+        <v>656.1154853312746</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>656.1154853312746</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>656.1154853312746</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923563</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400157</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400157</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="X8" t="n">
-        <v>2316.189868816558</v>
+        <v>1042.715325395396</v>
       </c>
       <c r="Y8" t="n">
-        <v>1926.050536840746</v>
+        <v>1042.715325395396</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500115</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310616</v>
+        <v>560.1394111735144</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251069</v>
+        <v>854.8429682049863</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084327</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681273</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.9225319085501</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>508.9863489806432</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>358.8697095683075</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>210.9566159859144</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F10" t="n">
-        <v>64.06666848800401</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800314</v>
@@ -4960,16 +4960,16 @@
         <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096592</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944677</v>
+        <v>1243.663993022928</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944677</v>
+        <v>954.5456555267655</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387899</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387899</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="X10" t="n">
-        <v>859.5709967387899</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.5709967387899</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O11" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>791.7848371185818</v>
+        <v>914.0526986331905</v>
       </c>
       <c r="M12" t="n">
-        <v>1383.80319137071</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>2005.899154770046</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.8776451133825</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>698.9051219233174</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>548.7884825109817</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109817</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130713</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
         <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K13" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5224,25 +5224,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1851.761433397778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1597.076945191891</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.670224256913</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.8776451133825</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273906</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876711</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597642</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474284</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474284</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474284</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1296.426404025081</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1068.436853127063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841094</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536367</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257298</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133941</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>194.800778399827</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625424</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583876</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565524</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377264</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340304</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442286</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987563</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,52 +6221,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239597</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239597</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1026.887310050512</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1654.485273605118</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358619</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2126.309465880251</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282429</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601758</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,19 +8532,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>224.3355197601751</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515132</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154983</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>46.75832398834608</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>379.1528904599111</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.2936714959107</v>
+        <v>110.1124749751912</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729184</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>50.29152613729087</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.874023140463407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482315</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>139.4693302300307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>150.6207863290871</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459467</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>176.3785887617846</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>191.8807364711603</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
-        <v>114.1584408891629</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>180.5336875992865</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>136.8413214260726</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>180.5336875992866</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>953138.6937072435</v>
+        <v>953138.6937072441</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1016252.577192656</v>
+        <v>1016252.577192655</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1016252.577192656</v>
+        <v>1016252.577192655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503242</v>
+        <v>375475.6212503246</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.299845003</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="I2" t="n">
         <v>403573.299845003</v>
@@ -26338,16 +26338,16 @@
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="L2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="L2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="M2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="N2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26366,16 +26366,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361757</v>
+        <v>495753.0386361756</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.2631150414</v>
+        <v>11452.26311504158</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>129476.544431744</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94312.63493349013</v>
+        <v>94312.63493349032</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618636</v>
@@ -26424,37 +26424,37 @@
         <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731975</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731948</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984475</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-926526.5696989303</v>
+        <v>-926701.7960173393</v>
       </c>
       <c r="C6" t="n">
-        <v>183265.112230433</v>
+        <v>183265.1122304335</v>
       </c>
       <c r="D6" t="n">
         <v>183265.1122304334</v>
       </c>
       <c r="E6" t="n">
-        <v>-202666.0611365055</v>
+        <v>-202711.9661320708</v>
       </c>
       <c r="F6" t="n">
-        <v>282881.1944793224</v>
+        <v>282846.4565538866</v>
       </c>
       <c r="G6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689285</v>
       </c>
       <c r="H6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689281</v>
       </c>
       <c r="I6" t="n">
-        <v>294333.4575943639</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="J6" t="n">
-        <v>126728.2797843814</v>
+        <v>126693.5418589456</v>
       </c>
       <c r="K6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="L6" t="n">
-        <v>294333.4575943641</v>
+        <v>294298.7196689281</v>
       </c>
       <c r="M6" t="n">
-        <v>164856.91316262</v>
+        <v>164822.1752371843</v>
       </c>
       <c r="N6" t="n">
-        <v>291256.4402386593</v>
+        <v>291221.7023132234</v>
       </c>
       <c r="O6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689284</v>
       </c>
       <c r="P6" t="n">
-        <v>294333.4575943641</v>
+        <v>294298.7196689283</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175396</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,37 +26957,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>423.976156598846</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.934451625288375</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>423.9761565988462</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.934451625288148</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259675</v>
+        <v>519.5604582259673</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364188</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259675</v>
+        <v>519.5604582259673</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364188</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259675</v>
+        <v>519.5604582259673</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364188</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>293.4897873054737</v>
       </c>
       <c r="E2" t="n">
-        <v>186.540832343645</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>136.3376730259631</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.71203470613443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>81.06687094810012</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>186.4334332091696</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>120.6222893014321</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247041</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>126.0431356907062</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>153.6149169440033</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>26.55685057789526</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28959,13 +28959,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
         <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,22 +31361,22 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405676</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,19 +31437,19 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
         <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
         <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
         <v>264.0341136849628</v>
@@ -31461,22 +31461,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
         <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,19 +31528,19 @@
         <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147053</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745102</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31607,7 +31607,7 @@
         <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.065366204059</v>
@@ -31616,13 +31616,13 @@
         <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168762</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
         <v>124.7417227624141</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169138</v>
@@ -31704,13 +31704,13 @@
         <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024989</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>361.6013389488605</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269586</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>379.8551982710414</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>345.6771571865335</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>585.3368606136111</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4622569139906</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,22 +33731,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N36" t="n">
-        <v>602.4605829984174</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,16 +33977,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>710.7237876039896</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
         <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091748</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.587496243485</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>617.0987427660932</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422164</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000392</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35109,10 +35109,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067511</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637952</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091751</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>451.0527332560636</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0158803980255</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>631.9617651335539</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000392</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308547</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423492</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.011291583107</v>
@@ -35340,10 +35340,10 @@
         <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295071</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818073</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>223.0469591689863</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825141</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>242.0137592966824</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>207.1227774066593</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>442.7406161691666</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.6208179396316</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37321,7 +37321,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N36" t="n">
-        <v>471.1188709150841</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>568.5897536819714</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
